--- a/yahoo/Korays Breathtaking Team.xlsx
+++ b/yahoo/Korays Breathtaking Team.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nikola Jokić</t>
+          <t>Nikola Jokic</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -623,24 +623,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Clint Capela</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Atlanta Hawks</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Clint Capela</t>
+          <t>Jakob Poltl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -650,41 +650,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Atlanta Hawks</t>
+          <t>Toronto Raptors</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jakob Pöltl</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Toronto Raptors</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>

--- a/yahoo/Korays Breathtaking Team.xlsx
+++ b/yahoo/Korays Breathtaking Team.xlsx
@@ -640,7 +640,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Jakob Poltl</t>
+          <t>Jakob Poeltl</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">

--- a/yahoo/Korays Breathtaking Team.xlsx
+++ b/yahoo/Korays Breathtaking Team.xlsx
@@ -470,17 +470,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Klay Thompson</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Dallas Mavericks</t>
         </is>
       </c>
     </row>
@@ -521,17 +521,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Jaylen Brown</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>SG,SF</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>Boston Celtics</t>
         </is>
       </c>
     </row>
@@ -657,34 +657,34 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Klay Thompson</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Dallas Mavericks</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Jaylen Brown</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SG,SF</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Boston Celtics</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>

--- a/yahoo/Korays Breathtaking Team.xlsx
+++ b/yahoo/Korays Breathtaking Team.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Jalen Suggs</t>
+          <t>Russell Westbrook</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>PG,SG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Orlando Magic</t>
+          <t>Denver Nuggets</t>
         </is>
       </c>
     </row>
@@ -487,34 +487,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chris Paul</t>
+          <t>Ben Simmons</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PG,C</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>San Antonio Spurs</t>
+          <t>Brooklyn Nets</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ben Simmons</t>
+          <t>Jalen Green</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>PG,C</t>
+          <t>PG,SG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Brooklyn Nets</t>
+          <t>Houston Rockets</t>
         </is>
       </c>
     </row>
@@ -538,7 +538,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jonathan Kuminga</t>
+          <t>Pascal Siakam</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Golden State Warriors</t>
+          <t>Indiana Pacers</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jalen Green</t>
+          <t>Jalen Suggs</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -667,41 +667,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Houston Rockets</t>
+          <t>Orlando Magic</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Pascal Siakam</t>
+          <t>Chris Paul</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>SF,PF</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Indiana Pacers</t>
+          <t>San Antonio Spurs</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Russell Westbrook</t>
+          <t>Jonathan Kuminga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>SF,PF</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Denver Nuggets</t>
+          <t>Golden State Warriors</t>
         </is>
       </c>
     </row>
